--- a/data/trans_bre/IMC_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-5.755469447335922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.224994208925885</v>
+        <v>-4.224994208925883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5312499127882593</v>
@@ -649,7 +649,7 @@
         <v>-0.3449669965439565</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3162568133786711</v>
+        <v>-0.3162568133786709</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.52593001522473</v>
+        <v>-9.580484878266603</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.687012629170837</v>
+        <v>-10.31412135681192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.57287742763569</v>
+        <v>-10.70091343391463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.940805814395835</v>
+        <v>-8.027154720564333</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7621255537331133</v>
+        <v>-0.7267451286844928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6642364843982114</v>
+        <v>-0.6680281289083508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5514577450353382</v>
+        <v>-0.5717183674106509</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5137404876919356</v>
+        <v>-0.5083098519068455</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.442169389049631</v>
+        <v>-2.135457272858947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8452333292029777</v>
+        <v>-0.8191563839394518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3812051111223332</v>
+        <v>0.001689438074767727</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7673008942682573</v>
+        <v>-0.7660286822765676</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.220197855880297</v>
+        <v>-0.1593720565386888</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.07276611363651447</v>
+        <v>-0.05302801487271425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.008543044528853771</v>
+        <v>-0.0005860820122709403</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.06989019802735694</v>
+        <v>-0.05110573820671537</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.433550314149662</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.854672212044299</v>
+        <v>-3.854672212044297</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3956705839529625</v>
@@ -749,7 +749,7 @@
         <v>-0.3071642756164631</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2238071607632775</v>
+        <v>-0.2238071607632774</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.56326703796247</v>
+        <v>-9.847372095617857</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.420571902248277</v>
+        <v>-9.90610920833578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.571722781658213</v>
+        <v>-9.516792871159094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.422193023225672</v>
+        <v>-8.323587955796516</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6301315784785315</v>
+        <v>-0.6251666096031728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.527978546199055</v>
+        <v>-0.5412086485166508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5683461588107729</v>
+        <v>-0.5638711049188494</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4239629241929792</v>
+        <v>-0.41954543355836</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3597754531637612</v>
+        <v>-0.6238057484984949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.32774863593462</v>
+        <v>1.225058365157531</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2742201307829785</v>
+        <v>0.5837930131298237</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6340116958052089</v>
+        <v>0.9113501944859785</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.005092762848335227</v>
+        <v>-0.06126479299965515</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1100688271734185</v>
+        <v>0.1018924713126321</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02620051599388475</v>
+        <v>0.05187254838445005</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05354562672810115</v>
+        <v>0.06756943362504619</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1879570864733948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.924208326567148</v>
+        <v>-4.92420832656715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1430074898106892</v>
@@ -849,7 +849,7 @@
         <v>0.01080040238622989</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2457563702931264</v>
+        <v>-0.2457563702931265</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.607952640044649</v>
+        <v>-4.048810783880014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.833364078518559</v>
+        <v>-1.579152331073305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.68947739613464</v>
+        <v>-6.406581919078159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.847301729008768</v>
+        <v>-10.42558905960794</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2234889474809874</v>
+        <v>-0.2433148371261688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0773783822024314</v>
+        <v>-0.073142993500573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3692362880746959</v>
+        <v>-0.3364826420274617</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4561358150245962</v>
+        <v>-0.4681650417092411</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.432296426596672</v>
+        <v>9.013032267712015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.46686947468401</v>
+        <v>11.39466437503887</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.897632126675918</v>
+        <v>7.859841456727175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8232195314225859</v>
+        <v>0.6924028976874259</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6920386773004065</v>
+        <v>0.6616872666235357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5944076219236395</v>
+        <v>0.5937377547606947</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4493145060931414</v>
+        <v>0.5027392807623389</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04361898186212578</v>
+        <v>0.04502157416279702</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.132105950854106</v>
+        <v>-3.1213135682737</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.408446184828896</v>
+        <v>-3.516663039349087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.395714514534276</v>
+        <v>-7.046440276186705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.267354289733651</v>
+        <v>-6.062498973702779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2169217620801432</v>
+        <v>-0.2141711651408449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1718115048600663</v>
+        <v>-0.1740549977102434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3549290932071031</v>
+        <v>-0.3475718079061679</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2941295501214206</v>
+        <v>-0.2817853225314722</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.500338045785216</v>
+        <v>3.241675722717059</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.192282900631132</v>
+        <v>4.372121429622184</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1275144559045782</v>
+        <v>0.03601690076728627</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5471775473751525</v>
+        <v>0.6934397395574096</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2784820509879221</v>
+        <v>0.2749923021271258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2535348263698968</v>
+        <v>0.2642607356694238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01194870436719084</v>
+        <v>0.001775182748097041</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03019615685158737</v>
+        <v>0.03720050861594357</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.1975790363590639</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3868587969630293</v>
+        <v>0.3868587969630294</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.143631009685274</v>
+        <v>2.243367180408042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.555115007564523</v>
+        <v>4.306841944424798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3867625855452849</v>
+        <v>-0.3939900471495761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.809258122369898</v>
+        <v>2.666817755988799</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1427617870877897</v>
+        <v>0.1530994874156673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2076246842127904</v>
+        <v>0.2012023742533953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0227423897800736</v>
+        <v>-0.01852548785702248</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1412940584267958</v>
+        <v>0.1242930232262052</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.91097320415655</v>
+        <v>12.42501529579568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.25634718754431</v>
+        <v>14.04961740801042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.96882464685226</v>
+        <v>8.863463964572556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.78638717808159</v>
+        <v>10.97851173112007</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.276978448932944</v>
+        <v>1.347555420116952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8968209386798889</v>
+        <v>0.9066741947741889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4937965412734936</v>
+        <v>0.4927219662587189</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7223655614418029</v>
+        <v>0.7197456223611211</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.5662198339236</v>
+        <v>12.03591386226426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>16.90658634411965</v>
+        <v>16.34810010847712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14.20175540238591</v>
+        <v>14.26006830582842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.453033015709297</v>
+        <v>5.624667241087181</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.357439602398974</v>
+        <v>2.521678837665527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.502445140141999</v>
+        <v>2.354358668009203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.899050329263015</v>
+        <v>1.792636438099889</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3948888526442669</v>
+        <v>0.4546614222744526</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.07608206692081</v>
+        <v>17.92746016823547</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.08695805676854</v>
+        <v>24.20333864687368</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21.72700044563152</v>
+        <v>21.84319476332917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.57376125281785</v>
+        <v>16.49088791777358</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>12.47954316483622</v>
+        <v>13.58361617544472</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>12.52743807684418</v>
+        <v>11.53064675381144</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.517784333822592</v>
+        <v>7.623158574326819</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.870266947539283</v>
+        <v>7.079195898530567</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.622372600625788</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.301872253572058</v>
+        <v>0.3018722535720553</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2286579515862671</v>
@@ -1249,7 +1249,7 @@
         <v>0.09522579892734444</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01777914402756299</v>
+        <v>0.01777914402756283</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.127468553564444</v>
+        <v>1.123633456755732</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.456785394767262</v>
+        <v>2.566438947851256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3227056133155491</v>
+        <v>-0.3890309345302123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.516068379270032</v>
+        <v>-1.401365495231272</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08638882192320228</v>
+        <v>0.08531495468986598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1405605887152095</v>
+        <v>0.1474634874251393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01797892932067414</v>
+        <v>-0.02090038812562158</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08300971288980241</v>
+        <v>-0.07719956848625043</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.414575416551159</v>
+        <v>4.492337467562905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.470074014872806</v>
+        <v>6.464085467076595</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.829234253135171</v>
+        <v>3.571898479650916</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.95783127867461</v>
+        <v>2.129653518712356</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3886039838493797</v>
+        <v>0.4001841576009474</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4155896907716617</v>
+        <v>0.4158031527500917</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2395610623372358</v>
+        <v>0.2258299680921215</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1225913222757757</v>
+        <v>0.1322959912538742</v>
       </c>
     </row>
     <row r="25">
